--- a/data/pca/factorExposure/factorExposure_2010-03-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-25.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01480623658793327</v>
+        <v>-0.01702354008486385</v>
       </c>
       <c r="C2">
-        <v>-0.01143430343698924</v>
+        <v>-0.000978528145794102</v>
       </c>
       <c r="D2">
-        <v>-0.01554862302610492</v>
+        <v>-0.00829861244648983</v>
       </c>
       <c r="E2">
-        <v>0.008134775622549273</v>
+        <v>-0.0001285509406939766</v>
       </c>
       <c r="F2">
-        <v>0.01912275224678455</v>
+        <v>-0.01027003450155227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1206618271336974</v>
+        <v>-0.0934309048960667</v>
       </c>
       <c r="C4">
-        <v>-0.06781873918275046</v>
+        <v>-0.01574841869679636</v>
       </c>
       <c r="D4">
-        <v>-0.003528452273031986</v>
+        <v>-0.08494476367030813</v>
       </c>
       <c r="E4">
-        <v>-0.005326466006200872</v>
+        <v>-0.03063080449729946</v>
       </c>
       <c r="F4">
-        <v>-0.007628173246993926</v>
+        <v>0.03049217350483712</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.120283377548598</v>
+        <v>-0.1547992547622645</v>
       </c>
       <c r="C6">
-        <v>0.007590187701382532</v>
+        <v>-0.02455600072567229</v>
       </c>
       <c r="D6">
-        <v>-0.01377688149842251</v>
+        <v>0.02232110923258592</v>
       </c>
       <c r="E6">
-        <v>0.02938850927876275</v>
+        <v>-0.009454963749287025</v>
       </c>
       <c r="F6">
-        <v>-0.05437798524276048</v>
+        <v>0.0491647665929939</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07573431536317501</v>
+        <v>-0.05910229077589782</v>
       </c>
       <c r="C7">
-        <v>-0.0658453274692971</v>
+        <v>0.0009647533601193855</v>
       </c>
       <c r="D7">
-        <v>-0.02954638539338142</v>
+        <v>-0.05248408147889193</v>
       </c>
       <c r="E7">
-        <v>0.02356277680413193</v>
+        <v>-0.01516770340011799</v>
       </c>
       <c r="F7">
-        <v>0.03014197869093984</v>
+        <v>0.04871967660529611</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05494812948963015</v>
+        <v>-0.05775564920747792</v>
       </c>
       <c r="C8">
-        <v>-0.03653862419341871</v>
+        <v>0.01337110777647397</v>
       </c>
       <c r="D8">
-        <v>-0.01872991483321752</v>
+        <v>-0.03302941822495365</v>
       </c>
       <c r="E8">
-        <v>-0.007407809706023592</v>
+        <v>-0.01625326273259295</v>
       </c>
       <c r="F8">
-        <v>-0.02347401666720049</v>
+        <v>-0.03014729404623213</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08688801334570119</v>
+        <v>-0.07113805292269787</v>
       </c>
       <c r="C9">
-        <v>-0.05758692307465938</v>
+        <v>-0.01169112636516954</v>
       </c>
       <c r="D9">
-        <v>-0.01336617893891463</v>
+        <v>-0.08445879547073064</v>
       </c>
       <c r="E9">
-        <v>-0.01359849498289905</v>
+        <v>-0.02551949909039701</v>
       </c>
       <c r="F9">
-        <v>0.009447324710966281</v>
+        <v>0.0518051788954818</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1014113993213238</v>
+        <v>-0.09537747271390554</v>
       </c>
       <c r="C10">
-        <v>0.1786314185480222</v>
+        <v>-0.0180351371423641</v>
       </c>
       <c r="D10">
-        <v>0.001711752922706841</v>
+        <v>0.1708471058671976</v>
       </c>
       <c r="E10">
-        <v>0.007351748396320356</v>
+        <v>0.04028086659234835</v>
       </c>
       <c r="F10">
-        <v>0.05147722152437334</v>
+        <v>-0.05419612815981303</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08095725841073639</v>
+        <v>-0.08748913440824418</v>
       </c>
       <c r="C11">
-        <v>-0.05211306728031775</v>
+        <v>-0.01137685354185695</v>
       </c>
       <c r="D11">
-        <v>-0.02401648792365648</v>
+        <v>-0.1144547935691281</v>
       </c>
       <c r="E11">
-        <v>-0.01910198540136356</v>
+        <v>-0.04925973474772903</v>
       </c>
       <c r="F11">
-        <v>-0.01281211965965693</v>
+        <v>0.01879684155196625</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08378787913677735</v>
+        <v>-0.09195058609773638</v>
       </c>
       <c r="C12">
-        <v>-0.07566761448217262</v>
+        <v>-0.008946302723157905</v>
       </c>
       <c r="D12">
-        <v>-0.03537694681043446</v>
+        <v>-0.1233400990884344</v>
       </c>
       <c r="E12">
-        <v>-0.06182934689313588</v>
+        <v>-0.04824833076408396</v>
       </c>
       <c r="F12">
-        <v>0.01615593926244701</v>
+        <v>0.01894470920571924</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03185465465074402</v>
+        <v>-0.0428830144174366</v>
       </c>
       <c r="C13">
-        <v>-0.03097559813414903</v>
+        <v>-0.003949207610178266</v>
       </c>
       <c r="D13">
-        <v>-0.006723216606987521</v>
+        <v>-0.0468867256665511</v>
       </c>
       <c r="E13">
-        <v>0.02065983257092653</v>
+        <v>0.01186671119191886</v>
       </c>
       <c r="F13">
-        <v>0.0103336732960082</v>
+        <v>0.01269107449117231</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03485809400570589</v>
+        <v>-0.02232043056079966</v>
       </c>
       <c r="C14">
-        <v>-0.01020375065778682</v>
+        <v>-0.01427000693130432</v>
       </c>
       <c r="D14">
-        <v>0.008678275103806346</v>
+        <v>-0.03134065652836892</v>
       </c>
       <c r="E14">
-        <v>-0.02211324374003904</v>
+        <v>-0.01876069769487837</v>
       </c>
       <c r="F14">
-        <v>-0.008386087500423326</v>
+        <v>0.01684441241583971</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01725274716984935</v>
+        <v>-0.03141210355450615</v>
       </c>
       <c r="C15">
-        <v>-0.009060328722622924</v>
+        <v>-0.005279766191544976</v>
       </c>
       <c r="D15">
-        <v>-0.01262305993594956</v>
+        <v>-0.04517067945919381</v>
       </c>
       <c r="E15">
-        <v>0.04528811204503016</v>
+        <v>-0.009075920520602264</v>
       </c>
       <c r="F15">
-        <v>0.01887499466410895</v>
+        <v>0.02920110268022887</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08804626305039737</v>
+        <v>-0.07320686181408312</v>
       </c>
       <c r="C16">
-        <v>-0.06263993719948696</v>
+        <v>-0.002760670278645306</v>
       </c>
       <c r="D16">
-        <v>-0.02716976365461958</v>
+        <v>-0.1182782856404881</v>
       </c>
       <c r="E16">
-        <v>-0.04350716795758273</v>
+        <v>-0.06367668227547965</v>
       </c>
       <c r="F16">
-        <v>-0.008557651948435857</v>
+        <v>0.02773789949387248</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.023753728310038</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003819209290038352</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01898326989242392</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.007051809672434699</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.01716928421494397</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04971744049809624</v>
+        <v>-0.06052728070494867</v>
       </c>
       <c r="C20">
-        <v>-0.03720951090221234</v>
+        <v>-0.0004217123613211019</v>
       </c>
       <c r="D20">
-        <v>0.01648746491298742</v>
+        <v>-0.07478694714559213</v>
       </c>
       <c r="E20">
-        <v>0.02847397491562498</v>
+        <v>-0.05619084830611781</v>
       </c>
       <c r="F20">
-        <v>0.009546791269182451</v>
+        <v>0.02666967076247286</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0324975807755913</v>
+        <v>-0.03882378648922855</v>
       </c>
       <c r="C21">
-        <v>-0.002289921889146131</v>
+        <v>-0.006831076114653463</v>
       </c>
       <c r="D21">
-        <v>0.02338442531102257</v>
+        <v>-0.03641332166310703</v>
       </c>
       <c r="E21">
-        <v>-0.01526077693465381</v>
+        <v>0.00825670795720751</v>
       </c>
       <c r="F21">
-        <v>-0.02650475707463671</v>
+        <v>-0.02190254318832929</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03067784222150256</v>
+        <v>-0.04342289121726492</v>
       </c>
       <c r="C22">
-        <v>0.02697176365665319</v>
+        <v>-0.001031802355844916</v>
       </c>
       <c r="D22">
-        <v>-0.05812795333800348</v>
+        <v>0.001751348961801544</v>
       </c>
       <c r="E22">
-        <v>0.6017306039585377</v>
+        <v>-0.0279428160285543</v>
       </c>
       <c r="F22">
-        <v>0.1697871083719181</v>
+        <v>-0.004549341842776554</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03090995017628612</v>
+        <v>-0.04347698550072721</v>
       </c>
       <c r="C23">
-        <v>0.02652664821585626</v>
+        <v>-0.001054145120758479</v>
       </c>
       <c r="D23">
-        <v>-0.05933146718942397</v>
+        <v>0.001625694385753811</v>
       </c>
       <c r="E23">
-        <v>0.605055524620002</v>
+        <v>-0.02829934629055998</v>
       </c>
       <c r="F23">
-        <v>0.1685065650940768</v>
+        <v>-0.004092533506820185</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08872410248359566</v>
+        <v>-0.07962291532269507</v>
       </c>
       <c r="C24">
-        <v>-0.06071099303383029</v>
+        <v>-0.003020902281910444</v>
       </c>
       <c r="D24">
-        <v>-0.01482655339148338</v>
+        <v>-0.1187201232125362</v>
       </c>
       <c r="E24">
-        <v>-0.03319437186087371</v>
+        <v>-0.05181001197544795</v>
       </c>
       <c r="F24">
-        <v>0.001907092238950839</v>
+        <v>0.02036440965460775</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09441066152704131</v>
+        <v>-0.08471152697187577</v>
       </c>
       <c r="C25">
-        <v>-0.05104188849558448</v>
+        <v>-0.005122410962726233</v>
       </c>
       <c r="D25">
-        <v>-0.02976622111928395</v>
+        <v>-0.1072919558322905</v>
       </c>
       <c r="E25">
-        <v>-0.06527054145313028</v>
+        <v>-0.03426782506158676</v>
       </c>
       <c r="F25">
-        <v>0.009516899052535232</v>
+        <v>0.02784083322723779</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03843487966564563</v>
+        <v>-0.05451726530322556</v>
       </c>
       <c r="C26">
-        <v>0.02742856437111206</v>
+        <v>-0.01473944055175759</v>
       </c>
       <c r="D26">
-        <v>0.01694736723662331</v>
+        <v>-0.03800895438116486</v>
       </c>
       <c r="E26">
-        <v>0.01086643184555133</v>
+        <v>-0.02758710980549331</v>
       </c>
       <c r="F26">
-        <v>-0.0289672079076903</v>
+        <v>-0.01275985153983732</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1063452255817575</v>
+        <v>-0.1436606530193637</v>
       </c>
       <c r="C28">
-        <v>0.3166902994819875</v>
+        <v>-0.01686342727925373</v>
       </c>
       <c r="D28">
-        <v>-0.03162516392740172</v>
+        <v>0.2657897537732882</v>
       </c>
       <c r="E28">
-        <v>-0.04219647108825497</v>
+        <v>0.06953219774440043</v>
       </c>
       <c r="F28">
-        <v>-0.006088360288853409</v>
+        <v>0.02806893777173673</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02997320436766137</v>
+        <v>-0.02699638434045855</v>
       </c>
       <c r="C29">
-        <v>-0.008005416359558317</v>
+        <v>-0.00859062398963575</v>
       </c>
       <c r="D29">
-        <v>-0.0002464712342817445</v>
+        <v>-0.03045778452535117</v>
       </c>
       <c r="E29">
-        <v>-0.03710351959469665</v>
+        <v>-0.0120536560337172</v>
       </c>
       <c r="F29">
-        <v>0.02825455229411473</v>
+        <v>-0.01480053933449543</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1042622439831185</v>
+        <v>-0.06249869864813518</v>
       </c>
       <c r="C30">
-        <v>-0.1179044213143847</v>
+        <v>-0.004292601303328285</v>
       </c>
       <c r="D30">
-        <v>-0.03927113904454406</v>
+        <v>-0.08693174334737833</v>
       </c>
       <c r="E30">
-        <v>-0.04636988003815476</v>
+        <v>-0.02511199554536051</v>
       </c>
       <c r="F30">
-        <v>-0.04181277920616996</v>
+        <v>0.1029888626458738</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02955892435647757</v>
+        <v>-0.04827177274397066</v>
       </c>
       <c r="C31">
-        <v>-0.02394981161392525</v>
+        <v>-0.01482036946651015</v>
       </c>
       <c r="D31">
-        <v>0.004460074761683405</v>
+        <v>-0.02793020999850461</v>
       </c>
       <c r="E31">
-        <v>0.002937760634662614</v>
+        <v>-0.02714184969800258</v>
       </c>
       <c r="F31">
-        <v>0.0008337481567449729</v>
+        <v>-0.00517014149175268</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06079451193604785</v>
+        <v>-0.04766779331966984</v>
       </c>
       <c r="C32">
-        <v>-0.01869618579524964</v>
+        <v>0.0004501139102593579</v>
       </c>
       <c r="D32">
-        <v>0.01416891757479568</v>
+        <v>-0.03100193431793515</v>
       </c>
       <c r="E32">
-        <v>-0.06828711544446771</v>
+        <v>-0.03081358343306314</v>
       </c>
       <c r="F32">
-        <v>-0.07200129488891398</v>
+        <v>0.001735430512753507</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09892600983951814</v>
+        <v>-0.08955859563178332</v>
       </c>
       <c r="C33">
-        <v>-0.066565921153743</v>
+        <v>-0.008494103727077445</v>
       </c>
       <c r="D33">
-        <v>-0.0760448964313635</v>
+        <v>-0.09656851877980345</v>
       </c>
       <c r="E33">
-        <v>-0.02137954496773774</v>
+        <v>-0.04767894806991946</v>
       </c>
       <c r="F33">
-        <v>0.00720313615918021</v>
+        <v>0.03929085095567637</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07674358715622566</v>
+        <v>-0.06735482259804815</v>
       </c>
       <c r="C34">
-        <v>-0.05483309905537012</v>
+        <v>-0.0118817888057869</v>
       </c>
       <c r="D34">
-        <v>-0.0199451113433542</v>
+        <v>-0.09827353057118124</v>
       </c>
       <c r="E34">
-        <v>-0.03662400662637217</v>
+        <v>-0.03554601211086836</v>
       </c>
       <c r="F34">
-        <v>-0.0003635450203165618</v>
+        <v>0.03802985070503569</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.009621139660875537</v>
+        <v>-0.02457675118156332</v>
       </c>
       <c r="C35">
-        <v>-0.00956499300829137</v>
+        <v>-0.002373099167415189</v>
       </c>
       <c r="D35">
-        <v>-0.002616601815643852</v>
+        <v>-0.01128812452175066</v>
       </c>
       <c r="E35">
-        <v>-0.00457401597640726</v>
+        <v>-0.01085009017304751</v>
       </c>
       <c r="F35">
-        <v>0.011630353720154</v>
+        <v>0.008847845711350862</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0291489874173617</v>
+        <v>-0.02440986985712432</v>
       </c>
       <c r="C36">
-        <v>-0.007670850496950887</v>
+        <v>-0.00731659522739138</v>
       </c>
       <c r="D36">
-        <v>-0.006471853013025271</v>
+        <v>-0.03688045088679989</v>
       </c>
       <c r="E36">
-        <v>0.005887745077927469</v>
+        <v>-0.0172762617646532</v>
       </c>
       <c r="F36">
-        <v>-0.01752291057893433</v>
+        <v>0.01391245335122944</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.007522053435755897</v>
+        <v>-0.001529114961108618</v>
       </c>
       <c r="C38">
-        <v>-0.005812813761805752</v>
+        <v>-0.0002468155553766307</v>
       </c>
       <c r="D38">
-        <v>-0.005944111147225282</v>
+        <v>-0.0008051329631383193</v>
       </c>
       <c r="E38">
-        <v>0.02112605679354011</v>
+        <v>-0.001081680298508115</v>
       </c>
       <c r="F38">
-        <v>0.03073110436717293</v>
+        <v>-0.001057224322580034</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1276889080115603</v>
+        <v>-0.1077215077944832</v>
       </c>
       <c r="C39">
-        <v>-0.1114490034650113</v>
+        <v>-0.01651324476992019</v>
       </c>
       <c r="D39">
-        <v>-0.058496050970365</v>
+        <v>-0.1553111704425646</v>
       </c>
       <c r="E39">
-        <v>-0.1428844471317418</v>
+        <v>-0.06240836476115137</v>
       </c>
       <c r="F39">
-        <v>-0.003671333287998429</v>
+        <v>0.02321921747271401</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.006149186671285887</v>
+        <v>-0.03716277668746457</v>
       </c>
       <c r="C40">
-        <v>-0.02428433965304623</v>
+        <v>-0.007219926550764681</v>
       </c>
       <c r="D40">
-        <v>0.01254382814295211</v>
+        <v>-0.03154866144474613</v>
       </c>
       <c r="E40">
-        <v>0.06589851854409136</v>
+        <v>-0.003419731863907227</v>
       </c>
       <c r="F40">
-        <v>0.03662734753319173</v>
+        <v>-0.01382625795703129</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02295680763489778</v>
+        <v>-0.02640277289869071</v>
       </c>
       <c r="C41">
-        <v>0.003112983005471406</v>
+        <v>-0.006562701497475443</v>
       </c>
       <c r="D41">
-        <v>0.006866793875987544</v>
+        <v>-0.01148662049482704</v>
       </c>
       <c r="E41">
-        <v>-0.008496254802745885</v>
+        <v>-0.01248070332857705</v>
       </c>
       <c r="F41">
-        <v>0.009253126112698027</v>
+        <v>-0.008352386804778168</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03491180344253902</v>
+        <v>-0.04042466792117407</v>
       </c>
       <c r="C43">
-        <v>-0.0006405755977337795</v>
+        <v>-0.006634503791629212</v>
       </c>
       <c r="D43">
-        <v>-0.01438793206190135</v>
+        <v>-0.02115812571566562</v>
       </c>
       <c r="E43">
-        <v>-0.00460077803278543</v>
+        <v>-0.02500753168281843</v>
       </c>
       <c r="F43">
-        <v>-0.004283751396258527</v>
+        <v>-0.01354086870068684</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.130765885833108</v>
+        <v>-0.0759120966162348</v>
       </c>
       <c r="C44">
-        <v>-0.1442221074969504</v>
+        <v>-0.02143065425655248</v>
       </c>
       <c r="D44">
-        <v>-0.05190092599612129</v>
+        <v>-0.09492640874625839</v>
       </c>
       <c r="E44">
-        <v>0.09957494610267456</v>
+        <v>-0.07588218183530071</v>
       </c>
       <c r="F44">
-        <v>0.1189389597618137</v>
+        <v>0.1827955945028552</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01774216679842645</v>
+        <v>-0.02245476035877</v>
       </c>
       <c r="C46">
-        <v>0.0171042189075</v>
+        <v>-0.003569062995431324</v>
       </c>
       <c r="D46">
-        <v>-0.01904493181150076</v>
+        <v>-0.01224947773098359</v>
       </c>
       <c r="E46">
-        <v>0.02074546803356663</v>
+        <v>-0.02353627678535965</v>
       </c>
       <c r="F46">
-        <v>0.02586367701581527</v>
+        <v>-0.0008293959692600943</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03697238639129439</v>
+        <v>-0.0516628108002929</v>
       </c>
       <c r="C47">
-        <v>-0.009964277752646413</v>
+        <v>-0.0031699420163132</v>
       </c>
       <c r="D47">
-        <v>0.007343735198877876</v>
+        <v>-0.01405202203149035</v>
       </c>
       <c r="E47">
-        <v>-0.005743178638479997</v>
+        <v>-0.02228543935482497</v>
       </c>
       <c r="F47">
-        <v>-0.0007908684075199667</v>
+        <v>-0.0443526505207076</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03615557711890622</v>
+        <v>-0.04749383431569203</v>
       </c>
       <c r="C48">
-        <v>0.001522370133032178</v>
+        <v>-0.002639287966438626</v>
       </c>
       <c r="D48">
-        <v>-0.006450545131704535</v>
+        <v>-0.04924239708492983</v>
       </c>
       <c r="E48">
-        <v>-0.009449653317921424</v>
+        <v>0.004392596112991037</v>
       </c>
       <c r="F48">
-        <v>0.0003940797560632211</v>
+        <v>0.01012029690371758</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2274013826339467</v>
+        <v>-0.2027331772954027</v>
       </c>
       <c r="C49">
-        <v>-0.004006144365113358</v>
+        <v>-0.01760461995134084</v>
       </c>
       <c r="D49">
-        <v>0.04574296723841425</v>
+        <v>0.00995153241852091</v>
       </c>
       <c r="E49">
-        <v>-0.01351473426516612</v>
+        <v>-0.03342753450270822</v>
       </c>
       <c r="F49">
-        <v>0.05323756782822506</v>
+        <v>0.02982901325763263</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03763729474444314</v>
+        <v>-0.04815061597907011</v>
       </c>
       <c r="C50">
-        <v>-0.01918522575925102</v>
+        <v>-0.01098057200709092</v>
       </c>
       <c r="D50">
-        <v>0.00926691534572403</v>
+        <v>-0.02663675788239837</v>
       </c>
       <c r="E50">
-        <v>-0.009786346907514969</v>
+        <v>-0.02971975430165053</v>
       </c>
       <c r="F50">
-        <v>0.002480220606511298</v>
+        <v>0.008533745618942441</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01133534611000107</v>
+        <v>-0.002179632377842993</v>
       </c>
       <c r="C51">
-        <v>0.01528762760936112</v>
+        <v>-0.0005526110485949086</v>
       </c>
       <c r="D51">
-        <v>-0.01493140048418687</v>
+        <v>0.002342825318821453</v>
       </c>
       <c r="E51">
-        <v>0.00654060566227497</v>
+        <v>0.000116528096308381</v>
       </c>
       <c r="F51">
-        <v>0.01339830180965125</v>
+        <v>0.004669008949955091</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1070655451232585</v>
+        <v>-0.1447676433298839</v>
       </c>
       <c r="C52">
-        <v>-0.08060167326614398</v>
+        <v>-0.01396395008041019</v>
       </c>
       <c r="D52">
-        <v>-0.01216554235645964</v>
+        <v>-0.05086404419133646</v>
       </c>
       <c r="E52">
-        <v>-0.009076205239382833</v>
+        <v>-0.02415405993363747</v>
       </c>
       <c r="F52">
-        <v>0.01122882207544556</v>
+        <v>0.03447951267569198</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1614633386921712</v>
+        <v>-0.1739043276167918</v>
       </c>
       <c r="C53">
-        <v>-0.03894572661618918</v>
+        <v>-0.01688606219882318</v>
       </c>
       <c r="D53">
-        <v>-0.007886978972385404</v>
+        <v>-0.01116587790549768</v>
       </c>
       <c r="E53">
-        <v>0.02282390712551099</v>
+        <v>-0.03552141522788242</v>
       </c>
       <c r="F53">
-        <v>0.03405770861813288</v>
+        <v>0.06757536573922268</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05131394781356677</v>
+        <v>-0.02186160873262994</v>
       </c>
       <c r="C54">
-        <v>-0.02227818685134392</v>
+        <v>-0.01234427593600454</v>
       </c>
       <c r="D54">
-        <v>0.002131608426598275</v>
+        <v>-0.03272222079176956</v>
       </c>
       <c r="E54">
-        <v>0.0245731856632026</v>
+        <v>-0.01507281683168283</v>
       </c>
       <c r="F54">
-        <v>-0.0001514690462909311</v>
+        <v>-0.005775060471386235</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08364469792251643</v>
+        <v>-0.1142773279949343</v>
       </c>
       <c r="C55">
-        <v>-0.02837194519354315</v>
+        <v>-0.01550881125288853</v>
       </c>
       <c r="D55">
-        <v>-0.05471547268600347</v>
+        <v>-0.01094162147963999</v>
       </c>
       <c r="E55">
-        <v>-0.02467407285887173</v>
+        <v>-0.03062508680412841</v>
       </c>
       <c r="F55">
-        <v>0.00804721292660977</v>
+        <v>0.04529358281249776</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1572637006638074</v>
+        <v>-0.1775283574498395</v>
       </c>
       <c r="C56">
-        <v>-0.05575068885254226</v>
+        <v>-0.01434973949716022</v>
       </c>
       <c r="D56">
-        <v>-0.01646596748057569</v>
+        <v>-0.007242725503710462</v>
       </c>
       <c r="E56">
-        <v>-0.009424416424714714</v>
+        <v>-0.03977578373471232</v>
       </c>
       <c r="F56">
-        <v>0.05211152802154087</v>
+        <v>0.04342600610030534</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04922901318811292</v>
+        <v>-0.04638971359756798</v>
       </c>
       <c r="C58">
-        <v>-0.003010822520642218</v>
+        <v>-0.001255739309622075</v>
       </c>
       <c r="D58">
-        <v>0.005695176535276287</v>
+        <v>-0.06646983796552922</v>
       </c>
       <c r="E58">
-        <v>0.05214837504087603</v>
+        <v>-0.02424724424196713</v>
       </c>
       <c r="F58">
-        <v>0.01924684009771537</v>
+        <v>-0.04351440963507539</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1737632029423564</v>
+        <v>-0.1725140303871935</v>
       </c>
       <c r="C59">
-        <v>0.2453708215062071</v>
+        <v>-0.01754441320663634</v>
       </c>
       <c r="D59">
-        <v>-0.05075979588407106</v>
+        <v>0.2230615106085004</v>
       </c>
       <c r="E59">
-        <v>-0.05091741436673563</v>
+        <v>0.04926916495410253</v>
       </c>
       <c r="F59">
-        <v>0.01655939923039759</v>
+        <v>-0.03321570703393163</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2767137892432646</v>
+        <v>-0.2356180301836144</v>
       </c>
       <c r="C60">
-        <v>-0.1633158340323798</v>
+        <v>0.004306163116615817</v>
       </c>
       <c r="D60">
-        <v>0.03592240806967982</v>
+        <v>-0.0485385511885365</v>
       </c>
       <c r="E60">
-        <v>-0.05937624481541795</v>
+        <v>-0.008972821343087982</v>
       </c>
       <c r="F60">
-        <v>0.1829849984879401</v>
+        <v>-0.03118540115597878</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1161102061716235</v>
+        <v>-0.08310863353754398</v>
       </c>
       <c r="C61">
-        <v>-0.07470246367729283</v>
+        <v>-0.01260774088044512</v>
       </c>
       <c r="D61">
-        <v>-0.03948522627637153</v>
+        <v>-0.1147426834009347</v>
       </c>
       <c r="E61">
-        <v>-0.08658402770041149</v>
+        <v>-0.04233615301581924</v>
       </c>
       <c r="F61">
-        <v>0.02781287547658658</v>
+        <v>0.01242451736363319</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1577886979855511</v>
+        <v>-0.169996118340684</v>
       </c>
       <c r="C62">
-        <v>-0.0429874725918146</v>
+        <v>-0.01786499738425121</v>
       </c>
       <c r="D62">
-        <v>-0.02769151548920608</v>
+        <v>-0.01145618360353693</v>
       </c>
       <c r="E62">
-        <v>0.005850564901059459</v>
+        <v>-0.0365139160212864</v>
       </c>
       <c r="F62">
-        <v>0.04549477972635808</v>
+        <v>0.02426176837796156</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03705964216002817</v>
+        <v>-0.0420486557108769</v>
       </c>
       <c r="C63">
-        <v>0.009683621374097194</v>
+        <v>-0.002696117131588856</v>
       </c>
       <c r="D63">
-        <v>-0.008044104855945334</v>
+        <v>-0.05214080072819081</v>
       </c>
       <c r="E63">
-        <v>-0.002725044542706879</v>
+        <v>-0.02271133255208608</v>
       </c>
       <c r="F63">
-        <v>-0.04486509694254032</v>
+        <v>0.005206909572791999</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09585932980824231</v>
+        <v>-0.1117282668926925</v>
       </c>
       <c r="C64">
-        <v>-0.02158013969590283</v>
+        <v>-0.01121832811349923</v>
       </c>
       <c r="D64">
-        <v>-0.000990079959919718</v>
+        <v>-0.04353505813083923</v>
       </c>
       <c r="E64">
-        <v>-0.01110088806212984</v>
+        <v>-0.02031013831947999</v>
       </c>
       <c r="F64">
-        <v>0.06209677598181249</v>
+        <v>0.02528406953812666</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1152552068396995</v>
+        <v>-0.1459820396263132</v>
       </c>
       <c r="C65">
-        <v>0.01064587381412485</v>
+        <v>-0.03130589913502437</v>
       </c>
       <c r="D65">
-        <v>-0.009976044988763904</v>
+        <v>0.04320336962126124</v>
       </c>
       <c r="E65">
-        <v>-0.006823071414999189</v>
+        <v>0.0005186870087233879</v>
       </c>
       <c r="F65">
-        <v>-0.05815027446291124</v>
+        <v>0.04903153013794786</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.148233594375547</v>
+        <v>-0.1287952588841071</v>
       </c>
       <c r="C66">
-        <v>-0.1358702475078334</v>
+        <v>-0.01429141129727136</v>
       </c>
       <c r="D66">
-        <v>-0.04994261868958975</v>
+        <v>-0.1431739449333622</v>
       </c>
       <c r="E66">
-        <v>-0.118683958796779</v>
+        <v>-0.06931814792323249</v>
       </c>
       <c r="F66">
-        <v>0.01353447939134433</v>
+        <v>0.0287734911358026</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06788428814818781</v>
+        <v>-0.06207306751650102</v>
       </c>
       <c r="C67">
-        <v>-0.03720841641748466</v>
+        <v>-0.003032886090127473</v>
       </c>
       <c r="D67">
-        <v>-0.08325255096701696</v>
+        <v>-0.05336567355159991</v>
       </c>
       <c r="E67">
-        <v>0.02154963913518313</v>
+        <v>-0.01705994347501975</v>
       </c>
       <c r="F67">
-        <v>0.0201387107035969</v>
+        <v>-0.04081660735372204</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.09634198838679706</v>
+        <v>-0.1171814517344324</v>
       </c>
       <c r="C68">
-        <v>0.2723710647272279</v>
+        <v>-0.02745484130204659</v>
       </c>
       <c r="D68">
-        <v>-0.0173968262163457</v>
+        <v>0.2614550308035944</v>
       </c>
       <c r="E68">
-        <v>-0.04682431214172993</v>
+        <v>0.08818222977261685</v>
       </c>
       <c r="F68">
-        <v>-0.02836787854355042</v>
+        <v>0.03123817189698954</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03181588228114308</v>
+        <v>-0.03915817898074712</v>
       </c>
       <c r="C69">
-        <v>0.004217974970405568</v>
+        <v>-0.0008967291969849013</v>
       </c>
       <c r="D69">
-        <v>-0.03241741016898168</v>
+        <v>-0.009854968627765517</v>
       </c>
       <c r="E69">
-        <v>-0.0008970366409413626</v>
+        <v>-0.02422994352482844</v>
       </c>
       <c r="F69">
-        <v>0.01439819700594308</v>
+        <v>-0.01037074687656842</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03008885998800873</v>
+        <v>-0.06229304121278882</v>
       </c>
       <c r="C70">
-        <v>0.006642735863925588</v>
+        <v>0.02877259998672622</v>
       </c>
       <c r="D70">
-        <v>-0.04019469875244874</v>
+        <v>-0.03046008859954271</v>
       </c>
       <c r="E70">
-        <v>-0.04070993011722339</v>
+        <v>0.05036740977207359</v>
       </c>
       <c r="F70">
-        <v>0.04041281025608753</v>
+        <v>-0.2742435505374698</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1103188577613659</v>
+        <v>-0.1364143648858979</v>
       </c>
       <c r="C71">
-        <v>0.289446814223052</v>
+        <v>-0.03174063164995424</v>
       </c>
       <c r="D71">
-        <v>-0.03310977748047196</v>
+        <v>0.2763924078493653</v>
       </c>
       <c r="E71">
-        <v>-0.04098048484795093</v>
+        <v>0.09646533152463738</v>
       </c>
       <c r="F71">
-        <v>0.0174695525564928</v>
+        <v>0.03711862978093675</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1431085312608884</v>
+        <v>-0.1410905254413706</v>
       </c>
       <c r="C72">
-        <v>0.0143211385807693</v>
+        <v>-0.0249196934218706</v>
       </c>
       <c r="D72">
-        <v>-0.0001386155599154057</v>
+        <v>-0.004237747910791784</v>
       </c>
       <c r="E72">
-        <v>0.01145572728033351</v>
+        <v>-0.04447327105120732</v>
       </c>
       <c r="F72">
-        <v>-0.009481102448510914</v>
+        <v>0.02586919620395162</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2259704221498536</v>
+        <v>-0.2029404593765438</v>
       </c>
       <c r="C73">
-        <v>-0.04966248463414267</v>
+        <v>-0.01152298255359472</v>
       </c>
       <c r="D73">
-        <v>-0.0549597792117692</v>
+        <v>-0.01706775550706512</v>
       </c>
       <c r="E73">
-        <v>-0.06117814925459842</v>
+        <v>-0.06343418636585497</v>
       </c>
       <c r="F73">
-        <v>0.1232494015437065</v>
+        <v>0.03244317816135348</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1173374590775005</v>
+        <v>-0.09432908297250366</v>
       </c>
       <c r="C74">
-        <v>-0.04915753414268727</v>
+        <v>-0.01223312785944451</v>
       </c>
       <c r="D74">
-        <v>-0.02193900211572369</v>
+        <v>-0.0208031533601634</v>
       </c>
       <c r="E74">
-        <v>0.009300274673864281</v>
+        <v>-0.0485543450484414</v>
       </c>
       <c r="F74">
-        <v>0.0164375602280544</v>
+        <v>0.04927630910241609</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.120181170215284</v>
+        <v>-0.1294590259623497</v>
       </c>
       <c r="C75">
-        <v>-0.05300214644815997</v>
+        <v>-0.02652049232763398</v>
       </c>
       <c r="D75">
-        <v>-0.002986117358520983</v>
+        <v>-0.03429764706320046</v>
       </c>
       <c r="E75">
-        <v>0.00998510420850398</v>
+        <v>-0.06035954022343183</v>
       </c>
       <c r="F75">
-        <v>-0.01072602016585823</v>
+        <v>0.01412400955223772</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01895649344843175</v>
+        <v>-0.003426297631318395</v>
       </c>
       <c r="C76">
-        <v>0.01553044700632806</v>
+        <v>-0.0008240722200110356</v>
       </c>
       <c r="D76">
-        <v>-0.01128617866729788</v>
+        <v>0.002596484393867499</v>
       </c>
       <c r="E76">
-        <v>-0.008557631834570286</v>
+        <v>-0.0003990767121310319</v>
       </c>
       <c r="F76">
-        <v>0.02028754111612354</v>
+        <v>0.004025328019348834</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07359910052662466</v>
+        <v>-0.07863757042823614</v>
       </c>
       <c r="C77">
-        <v>-0.1158901749913466</v>
+        <v>-0.008784626404603006</v>
       </c>
       <c r="D77">
-        <v>0.009724670497699614</v>
+        <v>-0.116902897377562</v>
       </c>
       <c r="E77">
-        <v>-0.004363208454337939</v>
+        <v>-0.03893868900290587</v>
       </c>
       <c r="F77">
-        <v>0.06562606980286638</v>
+        <v>0.0309272009631959</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1228921937181677</v>
+        <v>-0.1041511557138231</v>
       </c>
       <c r="C78">
-        <v>-0.02839042885660174</v>
+        <v>-0.04009465514691705</v>
       </c>
       <c r="D78">
-        <v>-0.08484625352594642</v>
+        <v>-0.1167796020799603</v>
       </c>
       <c r="E78">
-        <v>0.3297954070856156</v>
+        <v>-0.0824980057052742</v>
       </c>
       <c r="F78">
-        <v>-0.2922662830978001</v>
+        <v>0.0665418576480243</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1342563640856513</v>
+        <v>-0.1640620255159472</v>
       </c>
       <c r="C79">
-        <v>-0.04967103865868479</v>
+        <v>-0.0206986479247484</v>
       </c>
       <c r="D79">
-        <v>0.01630290810551328</v>
+        <v>-0.01912855365739299</v>
       </c>
       <c r="E79">
-        <v>-5.460124464889275e-05</v>
+        <v>-0.04978993873362661</v>
       </c>
       <c r="F79">
-        <v>0.02297895415038975</v>
+        <v>0.005159721767995656</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08008952782087438</v>
+        <v>-0.08087362481404066</v>
       </c>
       <c r="C80">
-        <v>-0.07926183691833681</v>
+        <v>0.0009305677088856563</v>
       </c>
       <c r="D80">
-        <v>-0.07115463885129816</v>
+        <v>-0.0571848747771824</v>
       </c>
       <c r="E80">
-        <v>-0.02687376199531169</v>
+        <v>-0.03589929868332313</v>
       </c>
       <c r="F80">
-        <v>0.001636268192390143</v>
+        <v>-0.01707272156715583</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1381810143708501</v>
+        <v>-0.1234047806705764</v>
       </c>
       <c r="C81">
-        <v>-0.06218599910837065</v>
+        <v>-0.0303803306233569</v>
       </c>
       <c r="D81">
-        <v>-0.008049659119165236</v>
+        <v>-0.01859317041705378</v>
       </c>
       <c r="E81">
-        <v>0.009403546665862987</v>
+        <v>-0.0595215131678298</v>
       </c>
       <c r="F81">
-        <v>0.01327414526960677</v>
+        <v>0.007060334218640771</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1588928512446105</v>
+        <v>-0.1641179856874358</v>
       </c>
       <c r="C82">
-        <v>-0.05429748824833568</v>
+        <v>-0.02247153171422538</v>
       </c>
       <c r="D82">
-        <v>-0.02898588871672939</v>
+        <v>-0.01298612181355889</v>
       </c>
       <c r="E82">
-        <v>-0.02550988155301271</v>
+        <v>-0.03508710932319239</v>
       </c>
       <c r="F82">
-        <v>0.0420564002117836</v>
+        <v>0.0681921264835777</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07893070447781367</v>
+        <v>-0.06240992311776614</v>
       </c>
       <c r="C83">
-        <v>-0.06625374237191753</v>
+        <v>-0.003084948852765131</v>
       </c>
       <c r="D83">
-        <v>0.0286585697757187</v>
+        <v>-0.05091807706891503</v>
       </c>
       <c r="E83">
-        <v>0.04395450748719017</v>
+        <v>-0.005715504061819631</v>
       </c>
       <c r="F83">
-        <v>-0.027272199156817</v>
+        <v>-0.04373417747913692</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06601443783200173</v>
+        <v>-0.05908698614331787</v>
       </c>
       <c r="C84">
-        <v>0.005222633116093119</v>
+        <v>-0.01071988502248718</v>
       </c>
       <c r="D84">
-        <v>0.007769616439444609</v>
+        <v>-0.06450698341796442</v>
       </c>
       <c r="E84">
-        <v>-0.07595274714254825</v>
+        <v>-0.003331632404991848</v>
       </c>
       <c r="F84">
-        <v>0.05436040257012491</v>
+        <v>0.01091225372570918</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1266105941557799</v>
+        <v>-0.1390056772832844</v>
       </c>
       <c r="C85">
-        <v>-0.03530878052119408</v>
+        <v>-0.02632420280912746</v>
       </c>
       <c r="D85">
-        <v>-0.008601582265259368</v>
+        <v>-0.01467658173431413</v>
       </c>
       <c r="E85">
-        <v>-0.0003165085208947733</v>
+        <v>-0.0412747431606456</v>
       </c>
       <c r="F85">
-        <v>0.03685310081134487</v>
+        <v>0.04671442984243409</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1560388459962873</v>
+        <v>-0.09457097145671407</v>
       </c>
       <c r="C86">
-        <v>-0.0114338408839073</v>
+        <v>0.007070956742422599</v>
       </c>
       <c r="D86">
-        <v>0.938688745502543</v>
+        <v>-0.02371505480160032</v>
       </c>
       <c r="E86">
-        <v>0.0660361209572303</v>
+        <v>-0.1514207410410463</v>
       </c>
       <c r="F86">
-        <v>-0.03406576843882827</v>
+        <v>-0.8715666115588446</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1215675655156222</v>
+        <v>-0.09629586073398881</v>
       </c>
       <c r="C87">
-        <v>-0.110709490850591</v>
+        <v>-0.02195435876193592</v>
       </c>
       <c r="D87">
-        <v>-0.01129823049006168</v>
+        <v>-0.08991485353891565</v>
       </c>
       <c r="E87">
-        <v>-0.004017396112158594</v>
+        <v>0.05410906068507804</v>
       </c>
       <c r="F87">
-        <v>0.04459260652340965</v>
+        <v>0.08131857168174825</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0519431332789748</v>
+        <v>-0.06114160235820602</v>
       </c>
       <c r="C88">
-        <v>-0.02122075765653412</v>
+        <v>-0.002412099537251129</v>
       </c>
       <c r="D88">
-        <v>-0.02033181686795166</v>
+        <v>-0.05408191959554747</v>
       </c>
       <c r="E88">
-        <v>-0.05866606089340181</v>
+        <v>-0.02718138847986282</v>
       </c>
       <c r="F88">
-        <v>-0.0009429176890947743</v>
+        <v>0.009442259914727384</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1623347540836881</v>
+        <v>-0.1362604443688574</v>
       </c>
       <c r="C89">
-        <v>0.3573493187045076</v>
+        <v>-0.009879612336393305</v>
       </c>
       <c r="D89">
-        <v>-0.03743545664135102</v>
+        <v>0.2546477985394214</v>
       </c>
       <c r="E89">
-        <v>0.03119717489319898</v>
+        <v>0.09267460928921935</v>
       </c>
       <c r="F89">
-        <v>0.0329911352251216</v>
+        <v>0.01537979921852302</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1215119617176886</v>
+        <v>-0.1477326223948901</v>
       </c>
       <c r="C90">
-        <v>0.2829548407739916</v>
+        <v>-0.02749331964488393</v>
       </c>
       <c r="D90">
-        <v>-0.02143861562411195</v>
+        <v>0.266504641861066</v>
       </c>
       <c r="E90">
-        <v>-0.05866464758622896</v>
+        <v>0.1090321752828869</v>
       </c>
       <c r="F90">
-        <v>0.0166161955269637</v>
+        <v>0.01969043616172598</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08337377114078451</v>
+        <v>-0.1194063333081058</v>
       </c>
       <c r="C91">
-        <v>-0.03831452778777373</v>
+        <v>-0.016912504184573</v>
       </c>
       <c r="D91">
-        <v>0.01702451815163217</v>
+        <v>0.008093678409626473</v>
       </c>
       <c r="E91">
-        <v>0.001245245631830343</v>
+        <v>-0.05769158846769072</v>
       </c>
       <c r="F91">
-        <v>0.02818456375354409</v>
+        <v>-0.01636504193159195</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1368894458162216</v>
+        <v>-0.1505430943307976</v>
       </c>
       <c r="C92">
-        <v>0.3210329644392433</v>
+        <v>-0.01925002637065697</v>
       </c>
       <c r="D92">
-        <v>-0.02849595505411449</v>
+        <v>0.2945980310584672</v>
       </c>
       <c r="E92">
-        <v>0.005743600435843168</v>
+        <v>0.1043676683210796</v>
       </c>
       <c r="F92">
-        <v>0.002145688264936145</v>
+        <v>0.01398326142008831</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1247602752685897</v>
+        <v>-0.1519503036934877</v>
       </c>
       <c r="C93">
-        <v>0.3212573625199138</v>
+        <v>-0.02345034848002068</v>
       </c>
       <c r="D93">
-        <v>-0.008379233957542618</v>
+        <v>0.2658644896034154</v>
       </c>
       <c r="E93">
-        <v>-0.08658204238263788</v>
+        <v>0.07618847567142434</v>
       </c>
       <c r="F93">
-        <v>0.02913891303492929</v>
+        <v>0.01431293413444922</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.140626686773817</v>
+        <v>-0.132704731366187</v>
       </c>
       <c r="C94">
-        <v>-0.05073525546468071</v>
+        <v>-0.0237377394357837</v>
       </c>
       <c r="D94">
-        <v>-0.03922976513837231</v>
+        <v>-0.04595453689385787</v>
       </c>
       <c r="E94">
-        <v>0.02317319643390478</v>
+        <v>-0.06118140005547746</v>
       </c>
       <c r="F94">
-        <v>0.01712198947719357</v>
+        <v>0.03232131446882414</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1171687989949983</v>
+        <v>-0.1257465898800095</v>
       </c>
       <c r="C95">
-        <v>-0.03990073514510423</v>
+        <v>-0.004667859768487328</v>
       </c>
       <c r="D95">
-        <v>-0.02630586560558746</v>
+        <v>-0.08991599392386009</v>
       </c>
       <c r="E95">
-        <v>0.02313351051536575</v>
+        <v>-0.04423928169329996</v>
       </c>
       <c r="F95">
-        <v>0.04050453261787392</v>
+        <v>-0.01440490770722729</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01356170888844482</v>
+        <v>-0.09899633652861387</v>
       </c>
       <c r="C96">
-        <v>0.002380561645374084</v>
+        <v>0.9887434693816674</v>
       </c>
       <c r="D96">
-        <v>0.002097466316719049</v>
+        <v>0.03560045215155648</v>
       </c>
       <c r="E96">
-        <v>0.008018533656174703</v>
+        <v>-0.05794845092244159</v>
       </c>
       <c r="F96">
-        <v>-0.003800859055759039</v>
+        <v>0.04633450378823405</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1775970951824791</v>
+        <v>-0.1891615485134253</v>
       </c>
       <c r="C97">
-        <v>-0.03302893232707949</v>
+        <v>0.009997801958454832</v>
       </c>
       <c r="D97">
-        <v>-0.04456758891624996</v>
+        <v>0.01032268163913176</v>
       </c>
       <c r="E97">
-        <v>0.1157069576834474</v>
+        <v>-0.01729736150633853</v>
       </c>
       <c r="F97">
-        <v>-0.851804832234373</v>
+        <v>-0.1552826395094284</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2423146636079005</v>
+        <v>-0.2053128236091406</v>
       </c>
       <c r="C98">
-        <v>0.007021369683523196</v>
+        <v>-0.007146181943105793</v>
       </c>
       <c r="D98">
-        <v>0.01723845210642683</v>
+        <v>-0.009572368328319975</v>
       </c>
       <c r="E98">
-        <v>0.08782245389405928</v>
+        <v>0.09859840376438196</v>
       </c>
       <c r="F98">
-        <v>0.01712973031641075</v>
+        <v>-0.1105316315081378</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.03787706426598205</v>
+        <v>-0.05552075398477917</v>
       </c>
       <c r="C99">
-        <v>0.007890906568320297</v>
+        <v>0.004099044763535624</v>
       </c>
       <c r="D99">
-        <v>-0.0363226759687455</v>
+        <v>-0.03627295483007181</v>
       </c>
       <c r="E99">
-        <v>0.0189222861634731</v>
+        <v>-0.02699875701319964</v>
       </c>
       <c r="F99">
-        <v>0.01025701977711999</v>
+        <v>0.002763744663165043</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.03351498421727042</v>
+        <v>-0.1224060546461116</v>
       </c>
       <c r="C100">
-        <v>-0.1031330117340939</v>
+        <v>0.05213843266942846</v>
       </c>
       <c r="D100">
-        <v>-0.1890701529838684</v>
+        <v>-0.3492176527187096</v>
       </c>
       <c r="E100">
-        <v>-0.04614449937128085</v>
+        <v>0.8932409476399422</v>
       </c>
       <c r="F100">
-        <v>-0.04374174475686883</v>
+        <v>-0.07307863438082171</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02960749498017592</v>
+        <v>-0.02692878731218957</v>
       </c>
       <c r="C101">
-        <v>-0.008384337496195722</v>
+        <v>-0.008597666214338072</v>
       </c>
       <c r="D101">
-        <v>-0.0009250554148270478</v>
+        <v>-0.03016405087285124</v>
       </c>
       <c r="E101">
-        <v>-0.03780654835254209</v>
+        <v>-0.01155573842780575</v>
       </c>
       <c r="F101">
-        <v>0.02792009420677486</v>
+        <v>-0.01659141061376366</v>
       </c>
     </row>
     <row r="102" spans="1:6">
